--- a/Input data/Graph.xlsx
+++ b/Input data/Graph.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC9DDA-A9BC-0141-B459-68F769C98774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB8E64-AE5B-564B-A650-3DE97B5F7F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="16940" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" activeTab="1" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +44,10 @@
   </si>
   <si>
     <t>Node2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A550BFA5-52EE-9242-9988-46359F551493}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2514,4 +2517,334 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67373B1-F0BC-2C45-BDC5-3BCACC4126DB}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29">
+        <f>SUM(C2:C28)</f>
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input data/Graph.xlsx
+++ b/Input data/Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BB8E64-AE5B-564B-A650-3DE97B5F7F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720FE6A-DDE2-C742-A1D8-CA663D8A49E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" activeTab="1" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
   </bookViews>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,6 +71,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -94,8 +105,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2521,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67373B1-F0BC-2C45-BDC5-3BCACC4126DB}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C29" sqref="C29:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2838,9 +2852,278 @@
       </c>
     </row>
     <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
       <c r="C29">
-        <f>SUM(C2:C28)</f>
-        <v>316</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>21</v>
+      </c>
+      <c r="B50" s="1">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Input data/Graph.xlsx
+++ b/Input data/Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720FE6A-DDE2-C742-A1D8-CA663D8A49E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692E0C4-C98C-5C46-96CC-D512DA94D998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" activeTab="1" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Node1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,21 +424,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A550BFA5-52EE-9242-9988-46359F551493}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2537,21 +2533,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67373B1-F0BC-2C45-BDC5-3BCACC4126DB}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/Input data/Graph.xlsx
+++ b/Input data/Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692E0C4-C98C-5C46-96CC-D512DA94D998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002956E8-9A28-AD4B-8C73-C7BE318DA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" activeTab="1" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A550BFA5-52EE-9242-9988-46359F551493}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -579,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -631,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -683,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -696,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -722,7 +722,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -735,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -748,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -774,7 +774,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -800,7 +800,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -852,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -865,7 +865,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -891,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -904,7 +904,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -917,7 +917,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -930,7 +930,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -943,7 +943,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -956,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -969,7 +969,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -982,7 +982,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -995,7 +995,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1034,7 +1034,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1099,7 +1099,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1138,7 +1138,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1190,7 +1190,7 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1242,7 +1242,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1255,7 +1255,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1281,7 +1281,7 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1320,7 +1320,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1424,7 +1424,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1463,7 +1463,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1502,7 +1502,7 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1528,7 +1528,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1541,7 +1541,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1567,7 +1567,7 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1606,7 +1606,7 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1671,7 +1671,7 @@
         <v>95</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1710,7 +1710,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1775,7 +1775,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>105</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1853,7 +1853,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1866,7 +1866,7 @@
         <v>110</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1892,7 +1892,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>115</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1942,7 +1942,7 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1968,7 +1968,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>120</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>125</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2111,7 +2111,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>130</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2163,7 +2163,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>135</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2201,7 +2201,7 @@
         <v>28</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2239,7 +2239,7 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>140</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2265,7 +2265,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2304,7 +2304,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2382,7 +2382,7 @@
         <v>150</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>151</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>152</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>153</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>154</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2447,7 +2447,7 @@
         <v>155</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>156</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>157</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>158</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>35</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>113</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>136</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67373B1-F0BC-2C45-BDC5-3BCACC4126DB}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2569,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2591,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2602,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2635,7 +2635,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2646,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2668,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2679,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2690,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2723,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2745,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2756,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2767,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2778,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2789,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2800,7 +2800,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2811,7 +2811,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2833,7 +2833,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>17</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">

--- a/Input data/Graph.xlsx
+++ b/Input data/Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002956E8-9A28-AD4B-8C73-C7BE318DA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857F640-977B-CD4B-AA9B-2FF978186B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="15800" activeTab="1" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{B444C7B0-2106-E747-B393-7077F39B6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A550BFA5-52EE-9242-9988-46359F551493}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2531,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67373B1-F0BC-2C45-BDC5-3BCACC4126DB}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2569,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2577,117 +2577,117 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>6</v>
-      </c>
-      <c r="C7">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
         <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -2695,131 +2695,131 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27">
         <v>15</v>
-      </c>
-      <c r="B27">
-        <v>21</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2838,197 +2838,197 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>36</v>
+      </c>
+      <c r="B29">
         <v>16</v>
       </c>
-      <c r="B28">
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>17</v>
       </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
+      <c r="B32">
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1">
-        <v>14</v>
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1">
-        <v>15</v>
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3113,12 +3113,188 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>18</v>
+      </c>
+      <c r="B63" s="1">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>23</v>
+      </c>
+      <c r="B68" s="1">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
         <v>24</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B69" s="1">
         <v>24</v>
       </c>
-      <c r="C53">
+      <c r="C69">
         <v>0</v>
       </c>
     </row>
